--- a/Assignment_3/Results/twogaussians33.xlsx
+++ b/Assignment_3/Results/twogaussians33.xlsx
@@ -528,16 +528,16 @@
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>99.01000000000001</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
